--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,119 +449,31 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>HƯỚNG DẪN LÊN KẾ HOẠCH ĐI THỊ TRƯỜNG
-1. Xác định mục tiêu đi thị trường
-2. Điều tra mùa vụ khu vực sắp đi
-3. Chốt Kế hoạch tổng với CSKH Và cấp quản lý
-4. Làm Kế hoạch chi tiết
-5. Các việc cần chuẩn bị trước khi đi công tác.
-6. Triển khai kế hoạch đi công tác
-7. Thanh quyết toán chi phí, hàng ứng.
-8. Cập nhật, kiểm tra thông tin trên CRM.
-9. Làm báo cáo tổng hợp cuối kỳ.</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1. Xác định mục tiêu đi Thị trường
-* Lên kế hoạch theo yêu cầu của Quản lý
-* Lên kế hoạch theo yêu cầu của CSKH phụ trách khu vực
-* Lên kế hoạch theo mùa vụ của cây trồng.
-2. Điều tra mùa vụ khu vực sắp đi
-* Liên hệ CSKH phụ trách khu vực để lấy thông tin về cây trồng, tình hình mùa vụ tại khu vực
-đó.
-* Lên Phần mềm tra thông tin Khách hàng khu vực cần đi, gọi điện hỏi thăm tình hình cây
-trồng và mùa vụ. Ví dụ KV Miền Tây sẽ bắt đầu vụ đông xuân vào tháng 11-12 dương =&gt; lên
-KH đi thị trường bắt đầu vào tháng 10 dương lịch
-=&gt; Từ 2 thông tin bên trên chúng ta quyết định: thời điểm đi thị trường, Sản phẩm cần tư vấn,
-hàng tạm ứng.
-Thông thường sẽ tập trung đi thị trường :
-=&gt; Các khu vực đang chuẩn bị vào vụ sẽ đi đón đầu để bán các sản phẩm đầu vụ. Thường đi
-trước khoảng 15-20 ngày sẽ hiệu quả.
-=&gt; Các khu vực thị trường còn trống, cần phát triển thêm khách hàng.
-=&gt; đi theo chiến lược phát triển của từng sản phẩm cụ thể. Ví dụ đi phát triển sản phẩm cho
-vùng trồng rau màu: binhtox gold, Voithai Gold, Oxatin ,…</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3. Chốt Kế hoạch Tổng với CSKH và cấp quản lý
-* Chốt kế hoạch tổng với CSKH và cấp quản lý:
-+ Đi khu vực nào (Tỉnh, Huyện, Xã)
-+ Khu vực đó sẽ đi bán hàng cho BMC (C1) hay PHÚC THỊNH (C2)
-+ Đi bằng phương tiện gì: bán tải hay đi xe máy
-+ Thời gian thực hiện kế hoạch: đi từ ngày nào tới nào? phải có thời gian cụ thể.
-+ Xây dựng mục tiêu của đợt công tác:
-- Số lượng đơn hàng của KH sẽ mở mới, KH lâu chưa lấy/ngày: vd: 2-3 KH/ngày (tùy vào khu
-vực)
-có thể mở lại KH đã lâu không lấy (KH quá 6 tháng không lấy hàng có thể mở mới lại vd: KH
-quá 6 tháng của C1 có thể mở mới lại cho C2)
-- Tổng số KH mua hàng, Số khách hàng mua hàng/ngày: ví dụ tối thiểu 5 đơn/ngày - tùy vào
-khu vực
-- Tổng doanh số, Doanh Số/ngày:Tổng doanh số bán trong ngày, ví dụ 50,000,000/ngày - tùy
-vào khu vực.
-* Sau khi làm xong kế hoạch thì Gửi lên nhóm “Quản lý PTTT” Trên Zalo. Để Quản lý xem và
-thống nhất Kế hoạch lần cuối cùng.
-Lưu ý khi lập kế hoạch: Mục tiêu phải rõ ràng , tập trung vào khu vực đang vào vụ hoặc sắp vào
-vụ, phối hợp chặt chẽ giữa nv pttt và cskh bán khu vực đó.</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>4. Làm Kế hoạch chi tiết
-+ Tổng hợp dữ liệu khách hàng gồm:KH cũ (bao gồm cả C1 và C2) + KH data
-+ Thông tin về lịch sử mua hàng của khách hang cũ: tên hàng, số lượng, thời điểm mua=&gt; đánh
-giá năng lực mua hang, sự ủng hộ của khách hàng.
-+ Nguồn dữ liệu: Lên Phần mềm CRM đổ thông tin của khách hàng khu vực cần đi, sắp xếp theo
-trình tự xã, huyện để dễ theo dõi lộ trình.
-=&gt; Chốt lại với CSKH 2 bên(C1 và PT): những Khách hàng nào nên vào, Những khách hàng nào
-không cần vào, khách nào nợ dai, khách khó tính, khách lâu không lấy hàng có thể mở mới cho
-bên BMC hoặc Phúc Thịnh không,.. =&gt; Gửi KH chi tiết lên nhóm Quản lý PTTT</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>5. Các việc cần chuẩn bị trước khi đi công tác.
-* Viết giấy đề nghị đi công tác =&gt; Cấp trưởng &amp; HCNS ký duyệt.
-* Ứng hàng, cattalo,áo thun, nón bo =&gt; có phiếu xuất kho bán hàng.
-* Tạm ứng tiền: tiền ăn, tiền ngủ khách sạn, tiền xăng (nếu đi xe máy) =&gt; viết giấy tạm ứng.
-* Nếu đi bằng xe ô tô phải báo trước HCNS để HCNS điều xe, tài xế.
-GIẤY ĐỀ NGHỊ ĐI CÔNG TÁC
-- Tên người đề nghị đi công tác: ( tên người sẽ đi công tác)
-- Bộ Phận: CSKH hay PTTT
-- Lý do đi công tác: vd: đi công tác PTTT Miền trung
-- Thời Gian Đi: đi từ ngày …….. Tới ngày ………..
-- Nơi Đi Công Tác: ghi đầy đủ thông tin Huyện, Tỉnh cần đi
-- Các Trang thiết bị cần cho chuyến đi công tác:
-vd: + Xe máy hay bán tải (nếu đi bằng xe bán tải nhờ bộ phận điều xe sắp xếp xe và tài xế - báo trước tối
-thiểu 3 ngày)
-+ Cattalo
-+ Hàng Mẫu
-=&gt; ghi xong ký tên người đề nghị, cần có chữ ký của cấp Quản Lý và Phòng nhân sự</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -573,55 +485,13 @@
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ỨNG HÀNG, ÁO THUN, NÓN BO, CATALO
-- Ứng hàng:xuất ứng mặt hàng làm đường dẫn theo tình hình mùa vụ cây trồng tại khu vực cần đi, các mặt hàng
-làm quà tặng: sản phẩm mới, áo thun, nón bo.
-- Đánh đơn hàng trên CRM (giống như lên đơn cho khách hàng) – đơn vị tính là chai/gói, không giá.
-- Ứng Cattalo: đi bên BMC ứng Catalo BMC, đi bên PT ứng Catalo PT
-- Kiểm tra hàng hóa: Sau khi kho soạn hàng ứng =&gt; người nhận kiểm tra nhận đúng số lượng trên PXK
-- Khi tặng khách hàng cần ghi chép: Tặng sản phẩm nào, số lượng bao nhiêu, cho ai để làm thanh toán.
-TẠM ỨNG TIỀN: tiền ăn, tiền ngủ khách sạn, tiền xăng (nếu đi xe máy)
-Ứng tiền đi công tác có 2 hình thức
-* Không ứng: Đi về trong ngày có thể không cần ứng tiền trước. Đi xong về làm thanh toán.
-* Có ứng: Đi nhiều ngày ứng tiền trước, hàng tuần làm hoàn ứng.
-* Định mức ứng tiền khi đi công tác
-Tiền cơm 1 ngày 140k (ăn sáng 30k, trưa 55k, chiều 55k)- Tiền Khách Sạn
-+ Đi 1 người: tiền cơm 140k/ngày + Khách sạn 250k/đêm.
-Nếu đi công tác trong ngày đi trước 6h30 sáng được tính tiền ăn sáng- về sau 7h tối được tính tiền ăn tối.
-+ Đi từ 2 người: Tiền cơm 140k/ngày/người + Khách sạn tối đa 375k/đêm (nếu ngủ chung)
-+ Đi từ 3 người: Tiền cơm 140k/ngày/người + Khách sạn tối đa 500k/đêm (nếu ngủ chung)</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tiền xăng xe: Định mức tiền xăng + tiền hao mòn xe( nếu đi xe máy cá nhân):
-* Tiền xăng: 40 km được tính 1 lít xăng theo giá thời điểm đi công tác.
-* Tiền hao mòn xe: 200 đ/km
-* Số KM tính tiền xăng, hao mòn là Km di chuyển trong lộ trình công tác: tính từ khi xuất phát tại
-công ty tới khi về tới cty.
-Làm tờ bảng kê chi tiền
-+ Người chi: vd: Phạm Đại Hiệp
-+ Đơn Vị: vd: PTTT
-+ Chi cho Công Việc: vd: Công Tác PTTT Miền Trung ngày 25-31/7/2025
-+ Nội dung chi: vd: tiền ăn từ 25-31/07/2025: 140k x 7 ngày = 980k
-tiền Khách sạn 2 người (Hiệp + Tài Xế) 375k x 6 đêm = 2.250k. Tổng ứng: 3,230k
-+ Ký Tên : Người Lập và Trưởng bộ phận Ký
-Làm giấy đề nghị tạm ứng:
-+ Tên:
-+ Đơn Vị:
-+ Xin tạm ứng số tiền: số tiền tổng ứng trên bảng kê chi tiền
-+ Lý Do chi tiền:
-=&gt; viết xong ký tên kèm với tờ bảng kê chi tiền =&gt; quản lý ký duyệt =&gt; xong đưa qua kế toán, lưu ý
-đưa hôm trước hôm sau nhận tiền ứng.</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -633,53 +503,13 @@
       <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>6.Triển khai kế hoạch đi công tác
-* Hàng ngày đi thị trường theo kế hoạch ( Xã, huyện, tỉnh .. Theo kế hoạch đã đưa ra).
-• Khi tới Khách hàng cần thực hiện các thao tác trên CRM,gồm các nội dung:
-+ Định vị vị trí cửa hàng ( check in)
-+ Cập nhật thông tin khách hàng: người quyết định mua hàng, sđt, bảng hiệu .
-+ Ghi chú đánh giá khách hàng : quy mô cửa hàng, bán lẻ/sỉ,thế mạnh của khách hàng, các nội dung đã trao
-đổi với khách hàng, thái độ của khách hàng, đơn hàng (nếu có).
-* Ghi chép đầy đủ hàng đã tặng khách hàng để làm thanh quyết toán.
-* Báo cáo ngày: Hàng ngày thực hiện báo cáo nhanh gồm các nội dung:
-1. Khu vực đã đi, bán cho BMC hay PT
-2. Doanh số bán hàng, số lượng đơn hàng
-3. Tình hình mùa vụ, tình hình thị trường.
-4. Khu vực đi ngày hôm sau.
-5. Đề xuất (nếu có).
-* Trường hợp cần thay đổi kế hoạch hoặc khó khăn trong lúc đi thị trường cần báo cáo ngay với cấp Quản lý
-để xin ý kiến trong ngày.
-* Lưu ý: Thông tin ngoài thị trường cần được cập nhật chính xác, đầy đủ, kịp thời để cấp quản lý có kế hoạch
-điều chỉnh kế hoạch kịp thời, đảm bảo hiệu quả công tác.</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>7. Thanh quyết Toán Công tác phí, hàng ứng
-7.1 Quyết toán chi phí công tác (Thanh toán từ thứ 7 tuần này cho hết thứ 6 tuần kế tiếp)
-• Tiền ăn : Thanh toán theo định mức, không cần hóa đơn
-• Tiền nhà nghỉ/khách sạn: xuất hóa đơn nếu nhà nghỉ, khách sạn có hóa đơn.
-( phải có đủ thông tin sđt và địa chỉ, kèm hình bảng hiệu hoặc card visit)
-• Tiền xăng xe, hao mòn xe ( Đi công tác bằng xe máy): không cần hóa đơn
-Giá xăng petrolimex -tra cột Xăng RON 95
-Làm bảng kê số KM đi mỗi ngày.
-Kèm hình đồng hồ KM xe máy ( gửi lên nhóm PTTT lúc đi và lúc về hằng ngày)
-• Chi phí phát sinh (Cần có sự đồng ý của cấp trưởng và Hóa đơn đầy đủ)
-• Các loại giấy tờ cần nộp: Giấy đề nghị thanh toán ( in giấy vàng), Giấy đề nghị đi công tác ,
-Lịch trình công tác, hóa đơn và giấy tờ liên quan =&gt; Gửi lên nhóm zalo: Đề nghị thanh toán
-Lưu ý:
-+Nếu đã tạm ứng: Nội dung thanh toán “ hoàn ứng”
-+ Nếu chưa tạm ứng: Nội dung thanh toán “ tiền mặt hoặc chuyển khoản”
-Nếu thanh toán chuyển khoản phải ghi rõ thông tin tài khoản nhận tiền</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -697,18 +527,7 @@
       <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>7.2 Quyết toán hàng ứng: Thanh toán vào cuối đợt công tác
-• Hàng ứng cần thanh quyết toán gồm: Hàng thuốc BVTV, nón bo, áo thun, catalo
-Kiểm tra lại số lượng hàng mẫu sau khi đi thị trường xong và làm theo mẫu chung
-• Các số liệu cần cập nhật đúng và đầy đủ: Tên đại lý, tên sản phẩm ( nhãn nào, quy cách,
-màu nhiên liệu ), số lượng cho tặng, số lượng hàng ứng, số lượng còn lại ( Nhập lại kho
-hoặc để đi công tác đợt sau)
-• Gửi File lên nhóm Quyết toán hàng công tác để kiểm tra và gửi sếp duyệt.
-Mọi chênh lệch hàng tạm ứng: sẽ phải bồi thường bằng giá trị thực xuất</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -720,21 +539,595 @@
       <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8. Cập nhật bổ sung, kiểm tra thông tin trên CRM
-- Cuối kỳ công tác :Kiểm tra lại thông tin trên CRM, bổ sung thông tin còn thiếu.
-9 . Làm báo cáo tổng hợp cuối kỳ
-- Báo cáo dưới dạng Exel theo Form
-- Gửi lên Group Quản Lý PTTT.
-- Các nội dung cơ bản gồm: Tổng số đơn hàng, tổng giá trị đơn hàng, số lượng đơn hàng
-của KH lâu chưa lấy, tổng số lượng khách hàng mở mới.
-- Đánh giá hiệu quả của đợt công tác: Đánh giá 3 chỉ tiêu
-+ Hoàn thành KH doanh số.
-+ Số lượng KH mở mới, KH lâu chưa lấy.
-+ Tổng số đơn hàng đã bán.</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ CỎ GOROP 500EC
+Gorop
+500EC
+Hoạt chất:
+Acetochlor..............500g/lít
+Phụ gia đặc biệt...500g/lít
+Hãng sản xuất:
+Weifang Kesai Agrochem Co., Ltd.
+Đặc tính - Công dụng:
+Gorop 500EC là thuốc trừ cỏ diệt mầm, nội hấp lưu dẫn, dùng để diệt mầm cỏ,
+trừ được hầu hết các loại cỏ lá rộng, lá hẹp như: Cỏ hoà bản, lồng vực, cỏ chỉ, cỏ
+túc, cỏ đuôi chồn, mần trầu, cỏ lác, cỏ gấu, cỏ lá rộng: Dền gai, cỏ ráy, mắc cỡ trên
+khoai mì (sắn), đậu tương, bắp (ngô), lạc... Sản phẩm đăng ký trừ cỏ trên đậu tương.
+Hướng dẫn sử dụng:
+Cây trồng Cỏ hại Liều dùng
+Pha 45 - 55 ml/bình 25 lít
+nước. Phun 2 bình cho 1 công
+Đậu tương Cỏ Nam bộ (1.000m2) hoặc pha
+360 - 450 ml cho 1 phuy 200
+lít nước.
+Lưu ý:
+- Phun sau khi gieo trồng lấp hạt hoặc củ từ 1 - 4 ngày và
+giữ cho đất đủ độ ẩm cao, tránh đọng nước.
+- Thời gian cách ly: Không xác định.
+Gorop 500ec</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ CỎ MARUKA 5EC</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ CỎ LAOTON 108EC</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ CỎ GARDONA 250SL</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ CỎ DUSAN 240EC
+Hoạt chất:Cartap Hydrochloride 4% w/w + Phụ gia đặc biệt 96% w/w
+Hãng sản xuất:Wu Zin Pesticide Factory
+MỚI NHẤT - MẠNH NHẤT
+DIỆT SÂU ĐỤC THÂN, CUỐN LÁ, SÂU, SÙNG, TUYẾN TRÙNG TRONG ĐẤT
+Đặc tính - Công dụng:
+- Cartap Hydrochloride là hoạt chất thuộc nhóm Carbamate, có hiệu quả cao trong
+việc kiểm soát các loại sâu hại. Thuốc có tác động phổ rộng với cơ chế tác động vị độc
+và tiếp xúc, lưu dẫn. Cartap Hydrochloride hoạt động bằng cách gây tê liệt hệ thần
+kinh của côn trùng, khiến chúng ngừng ăn và chết. Nhờ vậy, Cartap Hydrochloride
+mang lại hiệu quả diệt trừ cao và lâu dài.
+Hướng dẫn sử dụng:
+Cây trồng Sâu hại
+Lúa Sâu đục thân, cuốn lá, bọ trĩ, rầy nâu
+Mía, ngô Sâu đục thân
+Cà phê Rệp sáp, rệp muội, sâu đục cành Liều lượng: 15 - 20kg/ha
+Thời điểm: Rải thuốc trên mặt
+Thuốc lá Rệp sáp
+ruộng khi thấy bướm xuất hiện rộ
+Điều, hồ tiêu Bọ xít muỗi hoặc khi sâu rầy vừa xuất hiện.
+Lạc, đậu, rau cải Sâu khoang, sâu xanh
+Các loại hoa Sâu đục hoa, sâu ăn lá
+Lưu ý:
+- Sản phẩm dùng để rải diệt sâu bọ và côn trùng trong đất.
+- Không sử dụng khi trời sắp mưa to hoặc khi có gió lớn.
+Thời điểm: Sử dụng vào sáng sớm hoặc chiều để đạt hiệu quả cao nhất.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ CỎ AMESIP 80WP</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ CỎ SURON 80WP
+THUỐC TRỪ CỎ SURON 80WP
+DURONG 800WP
+Có RỒNG ĐỎ
+Không lo NHỔ CỎ
+Hoạt chất:
+Diuron.....................80% w/w
+Phụ gia đặc biệt...20% w/w
+Hãng sản xuất:
+Jingma Chemicals Co., Ltd.
+Đặc tính - Công dụng:
+DURONG 800WP là thuốc trừ cỏ tác động nội hấp và chọn lọc, diệt trừ các loại
+cỏ lá hẹp và lá rộng trên ruộng mía, bông vải, cà phê, khoai mì (sắn) như: Cỏ lá
+rộng, cỏ hòa thảo, mần trầu, cỏ túc, cỏ ống, cỏ chân gà, dền gai, rau sam, mắc
+cỡ...
+DURONG 800WP chủ yếu trừ cỏ trước khi mọc (tiền nảy mầm) hoặc cỏ mới
+mọc, còn nhỏ có từ 1-2 lá.
+DURONG 800WP có hiệu quả diệt cỏ kéo dài nên làm giảm chi phí diệt cỏ.
+Hướng dẫn sử dụng:
+Cây trồng Dịch hại Liều dùng
+3.5 kg/ha. Pha 40g/bình 12-16 lít nước.
+Mía
+Cỏ lá rộng, Phun 600 - 800 lít nước/ha.
+cỏ hòa thảo Phun thuốc sau khi gieo hạt bông
+Ngô (bắp) 1-2 ngày. Tránh phun trực tiếp vào
+ngọn mía.
+Lưu ý:
+-- NNêênn pphhuunn ttrrưướớcc kkhhii ccỏỏ mmọọcc hhaayy kkhhii ccỏỏ ccòònn nnhhỏỏ ((ccóó 11--22 lláá)) hhiiệệuu qquuảả ttrrừừ ccỏỏ ssẽẽ ccaaoo..
+NNếếuu pphhuunn kkhhii mmííaa đđãã mmọọcc,, ttrráánnhh pphhuunn ttrrựựcc ttiiếếpp vvààoo nnggọọnn mmííaa..
+KKhhii pphhuunn tthhuuốốcc đđấấtt ccàànngg ẩẩmm ccàànngg ttốốtt,, nnếếuu đđấấtt kkhhôô ccầầnn ttưướớii ẩẩmm ttrrưướớcc kkhhii pphhuunn..
+-- TThhờờii ggiiaann ccáácchh llyy:: KKhhôônngg xxáácc đđịịnnhh..
+Suron 80wp</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>AZIN RIO 45SC
+- Azin Rio 45SC là thuốc trừ cỏ hậu nảy mầm sớm phổ rộng, đặc trị các loại cỏ lá
+rộng và lá hẹp trên ruộng ngô, mía.
+- Azin Rio 45SC có tác động tiếp xúc và lưu dẫn (nội hấp) mạnh, hiệu lực trừ cỏ
+kéo dài và triệt để. Chỉ một lần phun sạch cỏ cho cả vụ. Có thể phun trùm lên
+cây ngô, mía để giảm công lao động.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Hoạt chất:Cartap Hydrochloride 4% w/w + Phụ gia đặc biệt 96% w/w
+Hãng sản xuất:Wu Zin Pesticide Factory
+MỚI NHẤT - MẠNH NHẤT
+DIỆT SÂU ĐỤC THÂN, CUỐN LÁ, SÂU, SÙNG, TUYẾN TRÙNG TRONG ĐẤT
+Đặc tính - Công dụng:
+- Cartap Hydrochloride là hoạt chất thuộc nhóm Carbamate, có hiệu quả cao trong
+việc kiểm soát các loại sâu hại. Thuốc có tác động phổ rộng với cơ chế tác động vị độc
+và tiếp xúc, lưu dẫn. Cartap Hydrochloride hoạt động bằng cách gây tê liệt hệ thần
+kinh của côn trùng, khiến chúng ngừng ăn và chết. Nhờ vậy, Cartap Hydrochloride
+mang lại hiệu quả diệt trừ cao và lâu dài.
+Hướng dẫn sử dụng:
+Cây trồng Sâu hại Liều lượng
+Lúa Sâu đục thân, cuốn lá, bọ trĩ, rầy nâu
+Mía, ngô Sâu đục thân
+Cà phê Rệp sáp, rệp muội, sâu đục cành Liều lượng: 15 - 20kg/ha
+Thời điểm: Rải thuốc trên mặt
+Thuốc lá Rệp sáp
+ruộng khi thấy bướm xuất hiện rộ
+Điều, hồ tiêu Bọ xít muỗi hoặc khi sâu rầy vừa xuất hiện.
+Lạc, đậu, rau cải Sâu khoang, sâu xanh
+Các loại hoa Sâu đục hoa, sâu ăn lá
+Lưu ý:
+- Sản phẩm dùng để rải diệt sâu bọ và côn trùng trong đất.
+- Không sử dụng khi trời sắp mưa to hoặc khi có gió lớn.
+Thời điểm: Sử dụng vào sáng sớm hoặc chiều để đạt hiệu quả cao nhất.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ SÂU IGRO 240SC
+SÂU CUỐN LÁ, SÂU ĐỤC THÂN, RẦY XANH,
+RỆP SÁP, BỌ CÁCH TƠ (BỌ TRĨ), NHỆN, SÙNG KHOAI,...
+Hoạt chất:
+Chlorfenapyr: 240g/lít
+Phụ gia đặc biệt 760g/lít
+Hãng sản xuất:
+Shanghai E-Tong Chemical Co., Ltd
+Đặc tính - Công dụng:
+Hướng dẫn sử dụng:
+Cây trồng Đối tượng Liều dùng
+Nhện gié, sâu cuốn lá,
+rầy lưng trắng, sâu đục
+Lúa
+thân, rầy nâu, sâu năn,
+sâu đục bẹ, bọ trĩ
+Sâu xanh da láng,
+Đậu tương Liều lượng: Pha 25 - 30ml thuốc với 18
+sâu khoang
+-25 lít nước để phun xịt.
+Điều Bọ trĩ
+Sâu cuốn lá,
+Lạc
+sâu xanh da láng
+Ngô Sâu keo mùa thu
+Lưu ý: Không phun khi trời sắp mưa to hoặc khi có gió lớn.
+Igro 240sc (Chlorfena)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>THUỐC TRỪ SÂU IGRO 240SC
+Hoạt chất:
+Chlorfenapyr: 24%w/v
+Phụ gia đặc biệt 76%w/v
+Hãng sản xuất:
+Shanghai E-Tong Chemical Co., LTD
+Đặc tính - Công dụng:
+Hướng dẫn sử dụng:
+Cây trồng Đối tượng Liều dùng
+Nhện gié, sâu cuốn lá,
+rầy lưng trắng, sâu đục
+Lúa
+thân, rầy nâu, sâu năn,
+sâu đục bẹ, bọ trĩ
+Sâu xanh da láng,
+Đậu tương Liều lượng: Pha 25 - 30ml thuốc với 18
+sâu khoang
+-25 lít nước để phun xịt.
+Chè, điều Bọ trĩ
+Sâu cuốn lá,
+Lạc
+sâu xanh da láng
+Ngô Sâu keo mùa thu
+Rau màu Sâu tơ, sâu xanh
+Lưu ý: Không phun khi trời sắp mưa to hoặc khi có gió lớn.
+Igro 240sc (Ohayo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
